--- a/parabolic/2025/07/16/parabolic.xlsx
+++ b/parabolic/2025/07/16/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D2" t="n">
-        <v>360900</v>
+        <v>516300</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D3" t="n">
-        <v>119500</v>
+        <v>198900</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -531,7 +531,7 @@
         <v>101</v>
       </c>
       <c r="D4" t="n">
-        <v>262400</v>
+        <v>322600</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>7091</t>
+          <t>6727</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,16 +551,62 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>990</v>
+        <v>682</v>
       </c>
       <c r="D5" t="n">
-        <v>333900</v>
+        <v>163900</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>957</v>
+      </c>
+      <c r="D6" t="n">
+        <v>502900</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>128</v>
+      </c>
+      <c r="D7" t="n">
+        <v>123900</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/07/16/parabolic.xlsx
+++ b/parabolic/2025/07/16/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="D2" t="n">
-        <v>516300</v>
+        <v>584800</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="D3" t="n">
-        <v>198900</v>
+        <v>280500</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>6048</t>
+          <t>2721</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>101</v>
+        <v>215</v>
       </c>
       <c r="D4" t="n">
-        <v>322600</v>
+        <v>313400</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>6727</t>
+          <t>6048</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>682</v>
+        <v>101</v>
       </c>
       <c r="D5" t="n">
-        <v>163900</v>
+        <v>323200</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>7091</t>
+          <t>6727</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>957</v>
+        <v>682</v>
       </c>
       <c r="D6" t="n">
-        <v>502900</v>
+        <v>223600</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>9423</t>
+          <t>7091</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,16 +597,39 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>128</v>
+        <v>910</v>
       </c>
       <c r="D7" t="n">
-        <v>123900</v>
+        <v>603300</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>9423</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>129</v>
+      </c>
+      <c r="D8" t="n">
+        <v>285400</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/07/16/parabolic.xlsx
+++ b/parabolic/2025/07/16/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D2" t="n">
-        <v>584800</v>
+        <v>640800</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="D3" t="n">
-        <v>280500</v>
+        <v>352400</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="D4" t="n">
-        <v>313400</v>
+        <v>725400</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>6048</t>
+          <t>6727</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>101</v>
+        <v>678</v>
       </c>
       <c r="D5" t="n">
-        <v>323200</v>
+        <v>349500</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>6727</t>
+          <t>7091</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>682</v>
+        <v>935</v>
       </c>
       <c r="D6" t="n">
-        <v>223600</v>
+        <v>635500</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>7091</t>
+          <t>9423</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,39 +597,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>910</v>
+        <v>140</v>
       </c>
       <c r="D7" t="n">
-        <v>603300</v>
+        <v>2244000</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>9423</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-07-16</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>129</v>
-      </c>
-      <c r="D8" t="n">
-        <v>285400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
